--- a/apresentação/Organização_Apresentação.xlsx
+++ b/apresentação/Organização_Apresentação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/apresentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{4AB8672E-4748-40D1-B32E-319AF8F18CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE3215AC-E270-40B5-AC06-0BD77C70C1F3}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{4AB8672E-4748-40D1-B32E-319AF8F18CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F085D4ED-882C-420E-B749-4A807BC14711}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C97CAC1C-63CB-4000-B560-75D607263C02}"/>
   </bookViews>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,18 +356,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,15 +371,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,8 +398,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AF2EC6-02E5-42FF-A75F-634B40E75F44}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -766,16 +760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="7.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -789,148 +783,148 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
   </sheetData>

--- a/apresentação/Organização_Apresentação.xlsx
+++ b/apresentação/Organização_Apresentação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/234fac80f67bd5e9/Área de Trabalho/SPTECH/projeto_sprint2/Documentacao/apresentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{4AB8672E-4748-40D1-B32E-319AF8F18CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F085D4ED-882C-420E-B749-4A807BC14711}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{4AB8672E-4748-40D1-B32E-319AF8F18CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4DE57A-1054-4888-AEB6-1CF146BD3296}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C97CAC1C-63CB-4000-B560-75D607263C02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Organização Apresentação</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>FABIO</t>
+  </si>
+  <si>
+    <t>NETO (DASH)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       <name val="ADLaM Display"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,7 +183,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,50 +389,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,6 +472,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFB3"/>
       <color rgb="FFCC3399"/>
       <color rgb="FFCC0099"/>
     </mruColors>
@@ -747,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AF2EC6-02E5-42FF-A75F-634B40E75F44}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -760,16 +824,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="7.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -783,148 +847,148 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
   </sheetData>
